--- a/data/pca/factorExposure/factorExposure_2012-09-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001818051169825826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001754562359519414</v>
+      </c>
+      <c r="C2">
+        <v>0.02851790334275828</v>
+      </c>
+      <c r="D2">
+        <v>0.004725065792320821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001058624112137561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007310267954038813</v>
+      </c>
+      <c r="C4">
+        <v>0.08337129450271269</v>
+      </c>
+      <c r="D4">
+        <v>0.07018847139376705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004764085189428105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01502342875699284</v>
+      </c>
+      <c r="C6">
+        <v>0.1163902050450234</v>
+      </c>
+      <c r="D6">
+        <v>0.02399647640888703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001445720830546899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005064030221549832</v>
+      </c>
+      <c r="C7">
+        <v>0.05810167120943914</v>
+      </c>
+      <c r="D7">
+        <v>0.03529116879266396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005727396312783447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006089504609687938</v>
+      </c>
+      <c r="C8">
+        <v>0.03541364720467821</v>
+      </c>
+      <c r="D8">
+        <v>0.04034546170491193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001615191111849233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005425141274105216</v>
+      </c>
+      <c r="C9">
+        <v>0.07028428631969016</v>
+      </c>
+      <c r="D9">
+        <v>0.07552478638827979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004352214411129227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004769337113589464</v>
+      </c>
+      <c r="C10">
+        <v>0.05501327054033928</v>
+      </c>
+      <c r="D10">
+        <v>-0.188540280940567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00183719443645227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.00582436598276121</v>
+      </c>
+      <c r="C11">
+        <v>0.07884582662491554</v>
+      </c>
+      <c r="D11">
+        <v>0.06625876794965249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001183348270440747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004522902684631853</v>
+      </c>
+      <c r="C12">
+        <v>0.06429290505144487</v>
+      </c>
+      <c r="D12">
+        <v>0.05183644762809596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001463755953171386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008524055600550624</v>
+      </c>
+      <c r="C13">
+        <v>0.06739400254863795</v>
+      </c>
+      <c r="D13">
+        <v>0.06220190314152364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002104452976292348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007434211361903785</v>
+      </c>
+      <c r="C14">
+        <v>0.04153633190059633</v>
+      </c>
+      <c r="D14">
+        <v>0.0135832249072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001375762889161348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005943210435444286</v>
+      </c>
+      <c r="C15">
+        <v>0.03970986485634701</v>
+      </c>
+      <c r="D15">
+        <v>0.03034080058415092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0002533982324076137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005211391047493251</v>
+      </c>
+      <c r="C16">
+        <v>0.06371938610741103</v>
+      </c>
+      <c r="D16">
+        <v>0.05852457526374424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002170841146307247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008852737057387964</v>
+      </c>
+      <c r="C20">
+        <v>0.06279647060074878</v>
+      </c>
+      <c r="D20">
+        <v>0.05273956360432668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006022371660574848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009482834588540661</v>
+      </c>
+      <c r="C21">
+        <v>0.01912291889689913</v>
+      </c>
+      <c r="D21">
+        <v>0.04296407716777874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01917317123389889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006810512456015869</v>
+      </c>
+      <c r="C22">
+        <v>0.08647269475163138</v>
+      </c>
+      <c r="D22">
+        <v>0.1244689541813591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01884687247282894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00650566839799373</v>
+      </c>
+      <c r="C23">
+        <v>0.08683037642516135</v>
+      </c>
+      <c r="D23">
+        <v>0.1255551593758278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002182725722356246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005752321372061992</v>
+      </c>
+      <c r="C24">
+        <v>0.07585683907797092</v>
+      </c>
+      <c r="D24">
+        <v>0.06884294975453413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003758651023379782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003287216445063586</v>
+      </c>
+      <c r="C25">
+        <v>0.07711985332262201</v>
+      </c>
+      <c r="D25">
+        <v>0.06824486225086897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001933920746454896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003714818261335131</v>
+      </c>
+      <c r="C26">
+        <v>0.03798692600354091</v>
+      </c>
+      <c r="D26">
+        <v>0.02630488009511901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004897103895180927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001572030171357728</v>
+      </c>
+      <c r="C28">
+        <v>0.1055011220210137</v>
+      </c>
+      <c r="D28">
+        <v>-0.3240481501095738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008220141491031337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002805875890737765</v>
+      </c>
+      <c r="C29">
+        <v>0.04733121855677254</v>
+      </c>
+      <c r="D29">
+        <v>0.01191613489234573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003816367216738876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009777499452146158</v>
+      </c>
+      <c r="C30">
+        <v>0.1408424001878374</v>
+      </c>
+      <c r="D30">
+        <v>0.1126876754501087</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002077545741680645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006439589419701772</v>
+      </c>
+      <c r="C31">
+        <v>0.04299408876177477</v>
+      </c>
+      <c r="D31">
+        <v>0.03356538548676661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005963533876297648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003854539365352997</v>
+      </c>
+      <c r="C32">
+        <v>0.03966625785732992</v>
+      </c>
+      <c r="D32">
+        <v>0.02305572066367585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-6.024605929951946e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009255034339812713</v>
+      </c>
+      <c r="C33">
+        <v>0.08793033319372881</v>
+      </c>
+      <c r="D33">
+        <v>0.06744347715198629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001909149321140029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004333576616951792</v>
+      </c>
+      <c r="C34">
+        <v>0.05722414405376601</v>
+      </c>
+      <c r="D34">
+        <v>0.0596249470395022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002176622636826774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005526220377558446</v>
+      </c>
+      <c r="C35">
+        <v>0.04006874641345178</v>
+      </c>
+      <c r="D35">
+        <v>0.02105897519620111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.0050263151217294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001483587212981806</v>
+      </c>
+      <c r="C36">
+        <v>0.02345557801934473</v>
+      </c>
+      <c r="D36">
+        <v>0.02787564768654099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003329889742648542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009381816777112882</v>
+      </c>
+      <c r="C38">
+        <v>0.0393590981330675</v>
+      </c>
+      <c r="D38">
+        <v>0.01329053355476526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01080995684820622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001096329947766828</v>
+      </c>
+      <c r="C39">
+        <v>0.1126959452597041</v>
+      </c>
+      <c r="D39">
+        <v>0.0781628515721451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003491282093378417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003799797400955068</v>
+      </c>
+      <c r="C40">
+        <v>0.08996076782298033</v>
+      </c>
+      <c r="D40">
+        <v>0.01919509790611266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001489939465988909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007315283564547856</v>
+      </c>
+      <c r="C41">
+        <v>0.03914072192409179</v>
+      </c>
+      <c r="D41">
+        <v>0.04104922200238404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0015635225621865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003805259074525176</v>
+      </c>
+      <c r="C43">
+        <v>0.05232285528935358</v>
+      </c>
+      <c r="D43">
+        <v>0.03020110994245567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007154399679339943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002770273663455275</v>
+      </c>
+      <c r="C44">
+        <v>0.1029926849407133</v>
+      </c>
+      <c r="D44">
+        <v>0.0700914022325239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001516540858378481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001749021286852437</v>
+      </c>
+      <c r="C46">
+        <v>0.03259950920752819</v>
+      </c>
+      <c r="D46">
+        <v>0.0350574349406536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001029711526253292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002228172517288667</v>
+      </c>
+      <c r="C47">
+        <v>0.03467090324060368</v>
+      </c>
+      <c r="D47">
+        <v>0.02402649250644156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003603457155713703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006854383685383371</v>
+      </c>
+      <c r="C48">
+        <v>0.02994412342456022</v>
+      </c>
+      <c r="D48">
+        <v>0.03703555479770504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.004224215794985733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01821250418423665</v>
+      </c>
+      <c r="C49">
+        <v>0.1908074377363554</v>
+      </c>
+      <c r="D49">
+        <v>0.00458880909657772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009238669954901384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003660175290695962</v>
+      </c>
+      <c r="C50">
+        <v>0.04193719081081803</v>
+      </c>
+      <c r="D50">
+        <v>0.04082697591949394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009852893864406578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00466485776148334</v>
+      </c>
+      <c r="C51">
+        <v>0.02668522039231765</v>
+      </c>
+      <c r="D51">
+        <v>0.02326835470582849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007214675913683884</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02196791058079752</v>
+      </c>
+      <c r="C53">
+        <v>0.1716257424610231</v>
+      </c>
+      <c r="D53">
+        <v>0.02108783400774578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004013492284226972</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009417258360918647</v>
+      </c>
+      <c r="C54">
+        <v>0.05491550573725039</v>
+      </c>
+      <c r="D54">
+        <v>0.04312746588332922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001375291438424993</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01006998696037392</v>
+      </c>
+      <c r="C55">
+        <v>0.1075541504117611</v>
+      </c>
+      <c r="D55">
+        <v>0.03842032322456763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00775505221668232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02099464792321693</v>
+      </c>
+      <c r="C56">
+        <v>0.1746762384167262</v>
+      </c>
+      <c r="D56">
+        <v>0.01463572364962623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.002448661796354066</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01941725885301894</v>
+      </c>
+      <c r="C58">
+        <v>0.1037791209279303</v>
+      </c>
+      <c r="D58">
+        <v>0.0725414684097231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.0001540532603989384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01029943032239327</v>
+      </c>
+      <c r="C59">
+        <v>0.1696506591847754</v>
+      </c>
+      <c r="D59">
+        <v>-0.3416026938607224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005870191527457025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02546149757832173</v>
+      </c>
+      <c r="C60">
+        <v>0.2271275451838319</v>
+      </c>
+      <c r="D60">
+        <v>0.01677902815165222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01039187345729851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001703425228937242</v>
+      </c>
+      <c r="C61">
+        <v>0.09391069569111843</v>
+      </c>
+      <c r="D61">
+        <v>0.05835837927888466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1476341418669302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1501527497538094</v>
+      </c>
+      <c r="C62">
+        <v>0.09823906692500345</v>
+      </c>
+      <c r="D62">
+        <v>0.0194526766402356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001085217834460007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006594200277071848</v>
+      </c>
+      <c r="C63">
+        <v>0.05237114006696332</v>
+      </c>
+      <c r="D63">
+        <v>0.03548434579845607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.007629912407289353</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01620410711037179</v>
+      </c>
+      <c r="C64">
+        <v>0.105491115293556</v>
+      </c>
+      <c r="D64">
+        <v>0.05419421198316794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007166966176102694</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01758832049219864</v>
+      </c>
+      <c r="C65">
+        <v>0.1203386832568437</v>
+      </c>
+      <c r="D65">
+        <v>0.03205116735686789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001705585543815036</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01365764749943075</v>
+      </c>
+      <c r="C66">
+        <v>0.1602199024657257</v>
+      </c>
+      <c r="D66">
+        <v>0.109861662202556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006397327407228696</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01590247362335058</v>
+      </c>
+      <c r="C67">
+        <v>0.07171490796258846</v>
+      </c>
+      <c r="D67">
+        <v>0.02331591314447385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.002943389161311637</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009775771347790025</v>
+      </c>
+      <c r="C68">
+        <v>0.08752868924175311</v>
+      </c>
+      <c r="D68">
+        <v>-0.2566193758793233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004987504980163695</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006622886210925719</v>
+      </c>
+      <c r="C69">
+        <v>0.05217206874116272</v>
+      </c>
+      <c r="D69">
+        <v>0.03862762723421254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001173209457611909</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002437560284116656</v>
+      </c>
+      <c r="C70">
+        <v>0.007471351400363132</v>
+      </c>
+      <c r="D70">
+        <v>0.0005698457576683048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.002356216327159184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005579876605636682</v>
+      </c>
+      <c r="C71">
+        <v>0.09185588876056466</v>
+      </c>
+      <c r="D71">
+        <v>-0.3012778651114341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003102275655934226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01732172382120286</v>
+      </c>
+      <c r="C72">
+        <v>0.156242128909625</v>
+      </c>
+      <c r="D72">
+        <v>0.01134382731840006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.008586409586210951</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03216533583179151</v>
+      </c>
+      <c r="C73">
+        <v>0.2819699063187814</v>
+      </c>
+      <c r="D73">
+        <v>0.05235508410184237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00605190951164936</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002172960419844643</v>
+      </c>
+      <c r="C74">
+        <v>0.1019273568299339</v>
+      </c>
+      <c r="D74">
+        <v>0.03546355541861394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.00168611395290176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01095251919268296</v>
+      </c>
+      <c r="C75">
+        <v>0.120544853913633</v>
+      </c>
+      <c r="D75">
+        <v>0.02783153843909128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01035469824833684</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02276488016324752</v>
+      </c>
+      <c r="C76">
+        <v>0.1463450395666259</v>
+      </c>
+      <c r="D76">
+        <v>0.05770084650059092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004433067441474335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02120930749563884</v>
+      </c>
+      <c r="C77">
+        <v>0.1131919093035049</v>
+      </c>
+      <c r="D77">
+        <v>0.0550293774892145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005301374132960646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01494112072383721</v>
+      </c>
+      <c r="C78">
+        <v>0.09782873578928655</v>
+      </c>
+      <c r="D78">
+        <v>0.08131968273223093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02655750843250419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03889165213908609</v>
+      </c>
+      <c r="C79">
+        <v>0.1555782685486548</v>
+      </c>
+      <c r="D79">
+        <v>0.03358754317686275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005811465147521369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009883941771332696</v>
+      </c>
+      <c r="C80">
+        <v>0.03866050586481203</v>
+      </c>
+      <c r="D80">
+        <v>0.03209274435681221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004079559201173277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0159714436543192</v>
+      </c>
+      <c r="C81">
+        <v>0.1282490702766539</v>
+      </c>
+      <c r="D81">
+        <v>0.04074307026419741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00774865288755118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02013192494155402</v>
+      </c>
+      <c r="C82">
+        <v>0.1380751189648131</v>
+      </c>
+      <c r="D82">
+        <v>0.0380175918245652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004474554993040537</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01235292083045481</v>
+      </c>
+      <c r="C83">
+        <v>0.06380335253097523</v>
+      </c>
+      <c r="D83">
+        <v>0.04470791065803682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01021635704134851</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01281707411983728</v>
+      </c>
+      <c r="C84">
+        <v>0.03885908110454098</v>
+      </c>
+      <c r="D84">
+        <v>-0.007014352051957581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01800682553045643</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02926487045245268</v>
+      </c>
+      <c r="C85">
+        <v>0.1230248834554016</v>
+      </c>
+      <c r="D85">
+        <v>0.04015865010677862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002401672592526719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004299098104255576</v>
+      </c>
+      <c r="C86">
+        <v>0.04919340835784761</v>
+      </c>
+      <c r="D86">
+        <v>0.03122615316996027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0005294115303078873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01156365474755988</v>
+      </c>
+      <c r="C87">
+        <v>0.1266837533451701</v>
+      </c>
+      <c r="D87">
+        <v>0.07829493929519796</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009709485191153866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003027871944930998</v>
+      </c>
+      <c r="C88">
+        <v>0.06277014551033815</v>
+      </c>
+      <c r="D88">
+        <v>0.02986013920545884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.008660306748746049</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002026364217044405</v>
+      </c>
+      <c r="C89">
+        <v>0.1396966305268828</v>
+      </c>
+      <c r="D89">
+        <v>-0.3153787077133922</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0001894445323580895</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006527175538204178</v>
+      </c>
+      <c r="C90">
+        <v>0.1209653241797309</v>
+      </c>
+      <c r="D90">
+        <v>-0.3116916950541266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001650541540302514</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01067800369529377</v>
+      </c>
+      <c r="C91">
+        <v>0.09868291309551487</v>
+      </c>
+      <c r="D91">
+        <v>0.02751685048381029</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004097522908007125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003495288284498077</v>
+      </c>
+      <c r="C92">
+        <v>0.1343683987031175</v>
+      </c>
+      <c r="D92">
+        <v>-0.3235934248554965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0006487021765947793</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004005438051992555</v>
+      </c>
+      <c r="C93">
+        <v>0.1057669128347887</v>
+      </c>
+      <c r="D93">
+        <v>-0.297541461272203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009861636667525603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02236620235864069</v>
+      </c>
+      <c r="C94">
+        <v>0.1420087525436322</v>
+      </c>
+      <c r="D94">
+        <v>0.05489135591607251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006400258298029047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01680169739828316</v>
+      </c>
+      <c r="C95">
+        <v>0.1205197793450855</v>
+      </c>
+      <c r="D95">
+        <v>0.06702904880880056</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01671304394369699</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03688815785185119</v>
+      </c>
+      <c r="C97">
+        <v>0.2247756712649729</v>
+      </c>
+      <c r="D97">
+        <v>0.004979297418159795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01224655489936596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03915615590126808</v>
+      </c>
+      <c r="C98">
+        <v>0.2600101459889372</v>
+      </c>
+      <c r="D98">
+        <v>0.02889624161423808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9870608574789173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9808923049858322</v>
+      </c>
+      <c r="C99">
+        <v>-0.1222289884232543</v>
+      </c>
+      <c r="D99">
+        <v>-0.02464067343802835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0007457046267147949</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002847505186240162</v>
+      </c>
+      <c r="C101">
+        <v>0.04745084447087874</v>
+      </c>
+      <c r="D101">
+        <v>0.01228365427170001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
